--- a/report/bang-yeu-cau-chuc-nang.xlsx
+++ b/report/bang-yeu-cau-chuc-nang.xlsx
@@ -4,22 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13788" windowHeight="9215"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quản lý nhân viên" sheetId="1" r:id="rId1"/>
+    <sheet name="Bán hàng" sheetId="2" r:id="rId2"/>
+    <sheet name="Kho" sheetId="3" r:id="rId3"/>
+    <sheet name="Quản lý sản phẩm" sheetId="4" r:id="rId4"/>
+    <sheet name="Quản lý khách hàng" sheetId="5" r:id="rId5"/>
+    <sheet name="Thống kê" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:F19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Chức năng</t>
-  </si>
-  <si>
-    <t>Tên chức năng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ</t>
   </si>
   <si>
     <t>Người dùng</t>
@@ -31,112 +37,272 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>Quản lý tài khoản nhân viên</t>
   </si>
   <si>
-    <t>F2</t>
+    <t>(Nhân viên): Nhập vào thông tin cá nhân
+(Quản lí): Cấp quyền</t>
+  </si>
+  <si>
+    <t>Tạo/Cập nhật tài khoản mới cho
+nhân viên</t>
+  </si>
+  <si>
+    <t>(trống)</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>Quản lý ca làm</t>
   </si>
   <si>
-    <t>F3</t>
+    <t>(Quản lí): Lập lịch làm của tuần tiếp theo
+(Quản lí): Chỉnh sửa lịch làm</t>
+  </si>
+  <si>
+    <t>Lưu lịch làm, gửi thông báo cho nhân viên
+Khi có chỉnh sửa, xét tính hợp lệ. Nếu hợp lệ, cập nhật lịch làm việc, lưu thời gian chỉnh sửa và người thực hiện</t>
+  </si>
+  <si>
+    <t>Nhân viên không có quyền chỉnh sửa mà phải qua quản lí
+Chỉnh sửa lịch làm sớm nhất là 1 giờ trước khi ca làm đó bắt đầu</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>Quản lý lương</t>
   </si>
   <si>
-    <t>F4</t>
+    <t>(Quản lí): Tạo/Chỉnh sửa lương của nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật, lưu thời gian và 
+người thực hiện</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa sẽ có hiệu lực ở tháng tiếp theo</t>
+  </si>
+  <si>
+    <t>Bán hàng</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>Đặt hàng</t>
   </si>
   <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>Quản lý chương trình khuyến mãi</t>
-  </si>
-  <si>
-    <t>F6</t>
+    <t>(Nhân viên): Lập đơn hàng kèm thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Lưu đơn hàng</t>
+  </si>
+  <si>
+    <t>Cho phép chỉnh sửa hoặc xóa đơn hàng trong vòng 1 giờ sau khi lập đơn</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Quản lý chương trình
+ khuyến mãi</t>
+  </si>
+  <si>
+    <t>(Quản lí): Tạo chương trình
+ khuyến mãi</t>
+  </si>
+  <si>
+    <t>Lưu chương trình khuyến mãi và 
+người thực hiện</t>
+  </si>
+  <si>
+    <t>Cho phép chỉnh sửa/xóa chương trình khuyến mãi</t>
+  </si>
+  <si>
+    <t>Kho</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>Quản lý nhập</t>
   </si>
   <si>
-    <t>F7</t>
+    <t>(Nhân viên): Cung cấp thông tin 
+phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Lưu phiếu nhập kho, cập nhật số lượng, nhân viên lập phiếu</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>Quản lý xuất</t>
   </si>
   <si>
-    <t>F8</t>
+    <t>Cung cấp thông tin về sản phẩm được xuất ra</t>
+  </si>
+  <si>
+    <t>Kiểm tra quy định và xuất thông tin như: tên, số lượng ban đầu, số lượng đã lấy và số lượng còn lại của sản phẩm. Nếu hợp lệ, lưu phiếu xuất kho, nhân viên yều cầu xuất kho và nhân viên xác nhận xuất kho</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
   <si>
     <t>Quản lý tồn kho</t>
   </si>
   <si>
-    <t>F9</t>
+    <t>(Nhân viên): Kiểm tra và lập báo cáo tồn kho</t>
+  </si>
+  <si>
+    <t>Lưu báo cáo tồn kho và người kiểm kê, thông báo nếu có thất thoát lớn trong kho</t>
+  </si>
+  <si>
+    <t>Báo cáo tồn kho được lập mỗi 
+khi kết thúc ca</t>
+  </si>
+  <si>
+    <t>3.4</t>
   </si>
   <si>
     <t>Quản lý nhà cung cấp</t>
   </si>
   <si>
-    <t>F10</t>
+    <t>(Quản lí): Cung cấp/Cập nhật thông tin về nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Lưu thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>Quản lý thông tin sản phẩm</t>
   </si>
   <si>
-    <t>F11</t>
+    <t>(Quản lí): Cung cấp/Chỉnh sửa 
+sản phẩm</t>
+  </si>
+  <si>
+    <t>Lưu sản phẩm</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>Quản lý công thức</t>
   </si>
   <si>
-    <t>F12</t>
+    <t>(Quản lí): Cung cấp/Chỉnh sửa
+thông tin về công thức</t>
+  </si>
+  <si>
+    <t>Lưu công thức</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>Quản lý giá</t>
   </si>
   <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>Quản lý thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>Quản lý đánh giá khách hàng</t>
-  </si>
-  <si>
-    <t>F15</t>
+    <t>(Quản lí): Cung cấp/Chỉnh sửa giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Lưu giá và người chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Cho phép thêm, xóa, cập nhật 
+thông tin</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>(Khách hàng): Cung cấp/Chỉnh sửa thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Lưu thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Đánh giá khách hàng</t>
+  </si>
+  <si>
+    <t>(Khách hàng): Thêm/Chỉnh sửa/
+Xóa đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra quy định và lưu đánh giá</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép đánh giá sản phẩm đã mua, tối đa 1 đánh giá mỗi lần mua nhưng không giới hạn lượt sửa</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
+  </si>
+  <si>
+    <t>6.1</t>
   </si>
   <si>
     <t>Thống kê doanh thu</t>
   </si>
   <si>
-    <t>F16</t>
+    <t>(Quản lí): Thời gian muốn thống
+kê</t>
+  </si>
+  <si>
+    <t>Lập thống kê</t>
+  </si>
+  <si>
+    <t>6.2</t>
   </si>
   <si>
     <t>Thống kê kho</t>
   </si>
   <si>
-    <t>F17</t>
+    <t>(Quản lí): Loại vật phẩm, thời gian muốn thống kê</t>
+  </si>
+  <si>
+    <t>6.3</t>
   </si>
   <si>
     <t>Thống kê sản phẩm</t>
   </si>
   <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>Thống kê năng suất nhân viên</t>
+    <t>(Quản lí): Loại sản phẩm, thời
+gian muốn thống kê</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Thống kê năng suất nhân
+viên</t>
+  </si>
+  <si>
+    <t>(Quản lí): Nhân viên, thời gian
+ muốn thống kê</t>
   </si>
 </sst>
 </file>
@@ -144,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,31 +324,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Oswald"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B937A"/>
+      <name val="Oswald"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2B937A"/>
+      <name val="Oswald"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Oswald Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Oswald"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Oswald"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +378,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -202,6 +433,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -209,100 +505,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,192 +515,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCCB5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -505,10 +721,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -529,17 +801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,26 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,23 +848,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,144 +862,168 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,6 +1079,13 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="002B937A"/>
+      <color rgb="00FCCB5B"/>
+      <color rgb="00CF433C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1075,182 +1352,738 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.84761904761905" defaultRowHeight="29.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
-    <col min="2" max="3" width="30.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="10.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.71428571428571" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.85714285714286" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.8571428571429" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" style="8" customWidth="1"/>
+    <col min="6" max="7" width="20.7142857142857" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.84761904761905" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="24.75" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="74.25" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="3" ht="148.5" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="4" ht="74.25" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" ht="15" spans="1:6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" ht="15" spans="1:6">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" ht="15" spans="1:6">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" ht="15" spans="1:6">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" ht="15" spans="1:6">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" ht="15" spans="1:6">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="3.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.75" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="3" ht="49.5" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="43.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="68.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
+    <col min="7" max="16384" width="68.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="74.25" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="78.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="16384" width="78.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.1428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="41.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="77.8571428571429" customWidth="1"/>
+    <col min="7" max="31" width="93.1428571428571" customWidth="1"/>
+    <col min="32" max="32" width="92.1428571428571" customWidth="1"/>
+    <col min="33" max="16384" width="93.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="62.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="37.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="6.57142857142857" customWidth="1"/>
+    <col min="7" max="16384" width="62.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="49.5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/report/bang-yeu-cau-chuc-nang.xlsx
+++ b/report/bang-yeu-cau-chuc-nang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowWidth="28800" windowHeight="12510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý nhân viên" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="Thống kê" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:F19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +225,9 @@
   <si>
     <t>Cho phép thêm, xóa, cập nhật 
 thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Quản lý khách hàng</t>
@@ -310,8 +312,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -360,6 +362,51 @@
       <color theme="1"/>
       <name val="Oswald"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -370,11 +417,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,24 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,28 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,29 +494,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,14 +507,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -527,13 +529,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,169 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,41 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -804,8 +771,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +802,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -853,15 +855,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,130 +873,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,7 +1356,7 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1581,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1663,16 +1665,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.85714285714286" customWidth="1"/>
     <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="43.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="68.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="5.85714285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
     <col min="7" max="16384" width="68.5714285714286" customWidth="1"/>
   </cols>
@@ -1784,17 +1786,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="3" max="4" width="12.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="6.57142857142857" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="16384" width="78.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1887,24 +1888,26 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.1428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="7.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="3.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="41.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="77.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
     <col min="7" max="31" width="93.1428571428571" customWidth="1"/>
     <col min="32" max="32" width="92.1428571428571" customWidth="1"/>
     <col min="33" max="16384" width="93.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:6">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1923,19 +1926,19 @@
     </row>
     <row r="2" ht="24.75" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -1944,19 +1947,19 @@
     <row r="3" ht="49.5" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1973,8 +1976,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="62.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2008,19 +2011,19 @@
     </row>
     <row r="2" ht="49.5" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -2029,16 +2032,16 @@
     <row r="3" ht="24.75" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -2047,16 +2050,16 @@
     <row r="4" ht="49.5" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -2065,16 +2068,16 @@
     <row r="5" ht="49.5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
